--- a/docs/ArchiX_Is_Takip_Listesi.xlsx
+++ b/docs/ArchiX_Is_Takip_Listesi.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1585F5-E518-4829-9D7B-1BFC9A4D9A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchiX Is Listesi" sheetId="1" r:id="rId1"/>
     <sheet name="Test Listesi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="287">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -849,13 +855,40 @@
   </si>
   <si>
     <t>Başarılı</t>
+  </si>
+  <si>
+    <t>6--04</t>
+  </si>
+  <si>
+    <t>6--05</t>
+  </si>
+  <si>
+    <t>6--06</t>
+  </si>
+  <si>
+    <t>6--07</t>
+  </si>
+  <si>
+    <t>6--08</t>
+  </si>
+  <si>
+    <t>6--09</t>
+  </si>
+  <si>
+    <t>6--10</t>
+  </si>
+  <si>
+    <t>6--11</t>
+  </si>
+  <si>
+    <t>6--12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +900,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,13 +957,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -962,7 +1009,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -996,6 +1043,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1030,9 +1078,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1205,14 +1254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1345,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1394,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1449,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1423,7 +1472,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1592,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1621,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1650,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1667,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1684,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1652,7 +1701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1689,7 +1738,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1712,7 +1761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1749,7 +1798,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1815,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1783,7 +1832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1817,7 +1866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1883,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +1900,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1934,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1968,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1985,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +2002,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1970,7 +2019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1987,7 +2036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2004,7 +2053,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2021,7 +2070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2104,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2089,7 +2138,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2106,7 +2155,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2189,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2157,7 +2206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2174,7 +2223,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2240,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2208,7 +2257,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2225,7 +2274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2242,7 +2291,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2259,7 +2308,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2276,7 +2325,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2310,7 +2359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -2327,7 +2376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2344,7 +2393,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2367,14 +2416,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2448,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2420,9 +2471,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2440,9 +2491,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2460,9 +2511,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2480,9 +2531,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2500,9 +2551,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2520,9 +2571,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2540,9 +2591,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2560,9 +2611,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2580,9 +2631,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2600,9 +2651,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2620,9 +2671,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2641,6 +2692,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/ArchiX_Is_Takip_Listesi.xlsx
+++ b/docs/ArchiX_Is_Takip_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1585F5-E518-4829-9D7B-1BFC9A4D9A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F2C14E-7F6E-4FF9-A0B3-FD3F66826203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="288">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>6--12</t>
+  </si>
+  <si>
+    <t>merhaba</t>
   </si>
 </sst>
 </file>
@@ -2417,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,6 +2694,17 @@
         <v>276</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/ArchiX_Is_Takip_Listesi.xlsx
+++ b/docs/ArchiX_Is_Takip_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F2C14E-7F6E-4FF9-A0B3-FD3F66826203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C95843-DFB9-4126-8094-3ADD0464268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="287">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>6--12</t>
-  </si>
-  <si>
-    <t>merhaba</t>
   </si>
 </sst>
 </file>
@@ -2420,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2694,17 +2691,6 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
-        <v>287</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/ArchiX_Is_Takip_Listesi.xlsx
+++ b/docs/ArchiX_Is_Takip_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C95843-DFB9-4126-8094-3ADD0464268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A4FD80-9F42-4AD1-A4D9-82E4B8CBCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="289">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>6--12</t>
+  </si>
+  <si>
+    <t>deneme</t>
+  </si>
+  <si>
+    <t>****-</t>
   </si>
 </sst>
 </file>
@@ -2417,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,6 +2697,20 @@
         <v>276</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/ArchiX_Is_Takip_Listesi.xlsx
+++ b/docs/ArchiX_Is_Takip_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A4FD80-9F42-4AD1-A4D9-82E4B8CBCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA8B40-B528-4F64-8886-19848F2EC454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="287">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -882,12 +882,6 @@
   </si>
   <si>
     <t>6--12</t>
-  </si>
-  <si>
-    <t>deneme</t>
-  </si>
-  <si>
-    <t>****-</t>
   </si>
 </sst>
 </file>
@@ -2423,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,20 +2691,6 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
-        <v>287</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
